--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H2">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I2">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J2">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>3495.255961938212</v>
+        <v>4661.319705626738</v>
       </c>
       <c r="R2">
-        <v>31457.30365744391</v>
+        <v>41951.87735064064</v>
       </c>
       <c r="S2">
-        <v>0.01854055769341357</v>
+        <v>0.02669524692126922</v>
       </c>
       <c r="T2">
-        <v>0.01854055769341356</v>
+        <v>0.02669524692126921</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H3">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I3">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J3">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>3684.129260263407</v>
+        <v>5043.46612535728</v>
       </c>
       <c r="R3">
-        <v>33157.16334237067</v>
+        <v>45391.19512821552</v>
       </c>
       <c r="S3">
-        <v>0.01954243461529763</v>
+        <v>0.02888378872467125</v>
       </c>
       <c r="T3">
-        <v>0.01954243461529763</v>
+        <v>0.02888378872467125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H4">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I4">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J4">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>2380.275764649761</v>
+        <v>2174.172122470915</v>
       </c>
       <c r="R4">
-        <v>21422.48188184785</v>
+        <v>19567.54910223824</v>
       </c>
       <c r="S4">
-        <v>0.01262615402742946</v>
+        <v>0.0124514226279395</v>
       </c>
       <c r="T4">
-        <v>0.01262615402742946</v>
+        <v>0.0124514226279395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H5">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I5">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J5">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>1275.33050893193</v>
+        <v>1707.317424165885</v>
       </c>
       <c r="R5">
-        <v>11477.97458038737</v>
+        <v>15365.85681749296</v>
       </c>
       <c r="S5">
-        <v>0.00676498062989097</v>
+        <v>0.009777758894348468</v>
       </c>
       <c r="T5">
-        <v>0.006764980629890969</v>
+        <v>0.009777758894348468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.350031</v>
+        <v>29.22757333333334</v>
       </c>
       <c r="H6">
-        <v>64.050093</v>
+        <v>87.68272</v>
       </c>
       <c r="I6">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993048</v>
       </c>
       <c r="J6">
-        <v>0.06732221160730764</v>
+        <v>0.08948272176993047</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>1856.555618514119</v>
+        <v>2038.512642862507</v>
       </c>
       <c r="R6">
-        <v>16709.00056662707</v>
+        <v>18346.61378576256</v>
       </c>
       <c r="S6">
-        <v>0.009848084641276017</v>
+        <v>0.01167450460170203</v>
       </c>
       <c r="T6">
-        <v>0.009848084641276015</v>
+        <v>0.01167450460170203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>399.358581</v>
       </c>
       <c r="I7">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J7">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>21793.26205180427</v>
+        <v>21230.38636605288</v>
       </c>
       <c r="R7">
-        <v>196139.3584662384</v>
+        <v>191073.4772944759</v>
       </c>
       <c r="S7">
-        <v>0.1156021867351586</v>
+        <v>0.1215858259178398</v>
       </c>
       <c r="T7">
-        <v>0.1156021867351585</v>
+        <v>0.1215858259178398</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>399.358581</v>
       </c>
       <c r="I8">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J8">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>22970.90550047091</v>
+        <v>22970.90550047092</v>
       </c>
       <c r="R8">
-        <v>206738.1495042382</v>
+        <v>206738.1495042383</v>
       </c>
       <c r="S8">
-        <v>0.1218489871240397</v>
+        <v>0.1315537300734798</v>
       </c>
       <c r="T8">
-        <v>0.1218489871240396</v>
+        <v>0.1315537300734798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>399.358581</v>
       </c>
       <c r="I9">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J9">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>14841.2517021516</v>
+        <v>9902.456192961887</v>
       </c>
       <c r="R9">
-        <v>133571.2653193644</v>
+        <v>89122.10573665697</v>
       </c>
       <c r="S9">
-        <v>0.07872530264525397</v>
+        <v>0.05671108825233991</v>
       </c>
       <c r="T9">
-        <v>0.07872530264525397</v>
+        <v>0.05671108825233991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>399.358581</v>
       </c>
       <c r="I10">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J10">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>7951.810192579474</v>
+        <v>7776.125829940754</v>
       </c>
       <c r="R10">
-        <v>71566.29173321527</v>
+        <v>69985.13246946679</v>
       </c>
       <c r="S10">
-        <v>0.04218031447426225</v>
+        <v>0.04453365403590505</v>
       </c>
       <c r="T10">
-        <v>0.04218031447426224</v>
+        <v>0.04453365403590505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>399.358581</v>
       </c>
       <c r="I11">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="J11">
-        <v>0.4197605598679787</v>
+        <v>0.4075568457508759</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>11575.80547708769</v>
+        <v>9284.583283959833</v>
       </c>
       <c r="R11">
-        <v>104182.2492937892</v>
+        <v>83561.2495556385</v>
       </c>
       <c r="S11">
-        <v>0.06140376888926428</v>
+        <v>0.05317254747131125</v>
       </c>
       <c r="T11">
-        <v>0.06140376888926426</v>
+        <v>0.05317254747131126</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H12">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I12">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J12">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>11002.36171038191</v>
+        <v>7861.011692841598</v>
       </c>
       <c r="R12">
-        <v>99021.2553934372</v>
+        <v>70749.10523557437</v>
       </c>
       <c r="S12">
-        <v>0.05836194094981884</v>
+        <v>0.04501979298653907</v>
       </c>
       <c r="T12">
-        <v>0.05836194094981882</v>
+        <v>0.04501979298653906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H13">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I13">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J13">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>11596.89680830771</v>
+        <v>8505.476707814312</v>
       </c>
       <c r="R13">
-        <v>104372.0712747694</v>
+        <v>76549.2903703288</v>
       </c>
       <c r="S13">
-        <v>0.06151564768943626</v>
+        <v>0.04871062601093958</v>
       </c>
       <c r="T13">
-        <v>0.06151564768943626</v>
+        <v>0.04871062601093958</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H14">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I14">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J14">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>7492.628642455773</v>
+        <v>3666.599494637346</v>
       </c>
       <c r="R14">
-        <v>67433.65778210196</v>
+        <v>32999.39545173612</v>
       </c>
       <c r="S14">
-        <v>0.0397445895618302</v>
+        <v>0.02099851223519205</v>
       </c>
       <c r="T14">
-        <v>0.0397445895618302</v>
+        <v>0.02099851223519205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H15">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I15">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J15">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>4014.483549231576</v>
+        <v>2879.279492148814</v>
       </c>
       <c r="R15">
-        <v>36130.35194308418</v>
+        <v>25913.51542933933</v>
       </c>
       <c r="S15">
-        <v>0.0212947963366076</v>
+        <v>0.01648955271303894</v>
       </c>
       <c r="T15">
-        <v>0.02129479633660759</v>
+        <v>0.01648955271303893</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.205597</v>
+        <v>49.29039633333334</v>
       </c>
       <c r="H16">
-        <v>201.616791</v>
+        <v>147.871189</v>
       </c>
       <c r="I16">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968169</v>
       </c>
       <c r="J16">
-        <v>0.2119167612650979</v>
+        <v>0.1509067745968168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>5844.06311662712</v>
+        <v>3437.818629390275</v>
       </c>
       <c r="R16">
-        <v>52596.56804964408</v>
+        <v>30940.36766451248</v>
       </c>
       <c r="S16">
-        <v>0.03099978672740501</v>
+        <v>0.01968829065110721</v>
       </c>
       <c r="T16">
-        <v>0.03099978672740501</v>
+        <v>0.01968829065110721</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H17">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I17">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J17">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>4544.786596573956</v>
+        <v>5286.141031847613</v>
       </c>
       <c r="R17">
-        <v>40903.0793691656</v>
+        <v>47575.26928662851</v>
       </c>
       <c r="S17">
-        <v>0.02410778467031242</v>
+        <v>0.03027358109238535</v>
       </c>
       <c r="T17">
-        <v>0.02410778467031241</v>
+        <v>0.03027358109238534</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H18">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I18">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J18">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>4790.3734274174</v>
+        <v>5719.511836058448</v>
       </c>
       <c r="R18">
-        <v>43113.3608467566</v>
+        <v>51475.60652452603</v>
       </c>
       <c r="S18">
-        <v>0.02541049807830859</v>
+        <v>0.03275548350575387</v>
       </c>
       <c r="T18">
-        <v>0.02541049807830859</v>
+        <v>0.03275548350575387</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H19">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I19">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J19">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>3095.008064969089</v>
+        <v>2465.606564814552</v>
       </c>
       <c r="R19">
-        <v>27855.0725847218</v>
+        <v>22190.45908333097</v>
       </c>
       <c r="S19">
-        <v>0.01641744587950554</v>
+        <v>0.01412045948682187</v>
       </c>
       <c r="T19">
-        <v>0.01641744587950554</v>
+        <v>0.01412045948682187</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H20">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I20">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J20">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1658.277695914889</v>
+        <v>1936.172856664888</v>
       </c>
       <c r="R20">
-        <v>14924.499263234</v>
+        <v>17425.55570998399</v>
       </c>
       <c r="S20">
-        <v>0.008796320964076627</v>
+        <v>0.011088407522989</v>
       </c>
       <c r="T20">
-        <v>0.008796320964076626</v>
+        <v>0.011088407522989</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.76086666666667</v>
+        <v>33.14535033333333</v>
       </c>
       <c r="H21">
-        <v>83.2826</v>
+        <v>99.43605099999999</v>
       </c>
       <c r="I21">
-        <v>0.0875372471419637</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="J21">
-        <v>0.08753724714196369</v>
+        <v>0.1014773319706963</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>2414.028953158022</v>
+        <v>2311.762763744339</v>
       </c>
       <c r="R21">
-        <v>21726.2605784222</v>
+        <v>20805.86487369905</v>
       </c>
       <c r="S21">
-        <v>0.01280519754976053</v>
+        <v>0.01323940036274625</v>
       </c>
       <c r="T21">
-        <v>0.01280519754976052</v>
+        <v>0.01323940036274625</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H22">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I22">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J22">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>11082.65125220225</v>
+        <v>13052.98210238572</v>
       </c>
       <c r="R22">
-        <v>99743.86126982022</v>
+        <v>117476.8389214715</v>
       </c>
       <c r="S22">
-        <v>0.05878783619140001</v>
+        <v>0.07475406157219233</v>
       </c>
       <c r="T22">
-        <v>0.05878783619139999</v>
+        <v>0.07475406157219233</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H23">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I23">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J23">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>11681.52495958891</v>
+        <v>14123.09758303217</v>
       </c>
       <c r="R23">
-        <v>105133.7246363002</v>
+        <v>127107.8782472896</v>
       </c>
       <c r="S23">
-        <v>0.06196455705069692</v>
+        <v>0.08088258284818337</v>
       </c>
       <c r="T23">
-        <v>0.06196455705069689</v>
+        <v>0.08088258284818337</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H24">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I24">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J24">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>7547.305968703378</v>
+        <v>6088.28220211149</v>
       </c>
       <c r="R24">
-        <v>67925.75371833041</v>
+        <v>54794.5398190034</v>
       </c>
       <c r="S24">
-        <v>0.04003462500783318</v>
+        <v>0.0348674210257548</v>
       </c>
       <c r="T24">
-        <v>0.04003462500783318</v>
+        <v>0.0348674210257548</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H25">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I25">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J25">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>4043.779172598416</v>
+        <v>4780.96015465907</v>
       </c>
       <c r="R25">
-        <v>36394.01255338574</v>
+        <v>43028.64139193163</v>
       </c>
       <c r="S25">
-        <v>0.02145019473978955</v>
+        <v>0.0273804244097033</v>
       </c>
       <c r="T25">
-        <v>0.02145019473978955</v>
+        <v>0.0273804244097033</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>67.69602866666668</v>
+        <v>81.84527466666667</v>
       </c>
       <c r="H26">
-        <v>203.088086</v>
+        <v>245.535824</v>
       </c>
       <c r="I26">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="J26">
-        <v>0.2134632201176522</v>
+        <v>0.2505763259116804</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>5886.710064832828</v>
+        <v>5708.398205480662</v>
       </c>
       <c r="R26">
-        <v>52980.39058349545</v>
+        <v>51375.58384932595</v>
       </c>
       <c r="S26">
-        <v>0.03122600712793256</v>
+        <v>0.03269183605584657</v>
       </c>
       <c r="T26">
-        <v>0.03122600712793255</v>
+        <v>0.03269183605584658</v>
       </c>
     </row>
   </sheetData>
